--- a/Business Analytics/Excel/Assignment -5 Generate Multiplication Table/Generate Multiplication Table.xlsx
+++ b/Business Analytics/Excel/Assignment -5 Generate Multiplication Table/Generate Multiplication Table.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\Downloads\Ineuron.ai\20 questions\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ineuron\assignments\Business Analytics\Excel\Assignment -5 Generate Multiplication Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9643D-C92C-4162-AEFA-FE1222A210CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7BDA67-5218-4B1F-9401-D1D272FC9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,12 +43,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -70,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -358,323 +375,911 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>9</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>11</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>12</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>13</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>14</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" s="1">
+        <f>B$1*$A2</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:O15" si="0">C$1*$A2</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B15" si="1">B$1*A3</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
